--- a/database/exercise_database.xlsx
+++ b/database/exercise_database.xlsx
@@ -22,106 +22,106 @@
     <t>AVG MALE WEIGHT 195.8 AVG FEMALE WEIGHT 168.4 , SO BASED ON A 180LB PERSON TO BE IN BETWEEN BOTH</t>
   </si>
   <si>
+    <t>Aerobics, low impact</t>
+  </si>
+  <si>
+    <t>Aerobics, high impact</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Bowling</t>
+  </si>
+  <si>
+    <t>Circuit Training</t>
+  </si>
+  <si>
+    <t>Climbing hills</t>
+  </si>
+  <si>
+    <t>Cycling (10mph)</t>
+  </si>
+  <si>
+    <t>Cycling (14mph)</t>
+  </si>
+  <si>
+    <t>Cycling (19mph)</t>
+  </si>
+  <si>
+    <t>Dancing</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Gardening</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Jump rope</t>
+  </si>
+  <si>
+    <t>Kayaking</t>
+  </si>
+  <si>
+    <t>Mowing the lawn</t>
+  </si>
+  <si>
+    <t>Raquetball</t>
+  </si>
+  <si>
+    <t>Rock Climbing</t>
+  </si>
+  <si>
+    <t>Running (6mph)</t>
+  </si>
+  <si>
+    <t>Running (7.5mph)</t>
+  </si>
+  <si>
+    <t>Skateboarding</t>
+  </si>
+  <si>
+    <t>Skiing downhill</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+  </si>
+  <si>
+    <t>Squats</t>
+  </si>
+  <si>
+    <t>Swimming laps</t>
+  </si>
+  <si>
+    <t>Table tennis</t>
+  </si>
+  <si>
+    <t>Tai chi</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Volleyball</t>
+  </si>
+  <si>
     <t>Walking (2mph)</t>
   </si>
   <si>
-    <t>Aerobics, low impact</t>
-  </si>
-  <si>
-    <t>Cycling (10mph)</t>
-  </si>
-  <si>
-    <t>Kayaking</t>
-  </si>
-  <si>
-    <t>Mowing the lawn</t>
-  </si>
-  <si>
-    <t>Skateboarding</t>
+    <t>Walking (3mph)</t>
   </si>
   <si>
     <t>Walking (4mph)</t>
   </si>
   <si>
-    <t>Walking (3mph)</t>
-  </si>
-  <si>
     <t>Water aerobics</t>
   </si>
   <si>
-    <t>Aerobics, high impact</t>
-  </si>
-  <si>
-    <t>Circuit Training</t>
-  </si>
-  <si>
-    <t>Raquetball</t>
-  </si>
-  <si>
-    <t>Skiing downhill</t>
-  </si>
-  <si>
-    <t>Swimming laps</t>
-  </si>
-  <si>
     <t>Weightlifting</t>
-  </si>
-  <si>
-    <t>Cycling (14mph)</t>
-  </si>
-  <si>
-    <t>Cycling (19mph)</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Tennis</t>
-  </si>
-  <si>
-    <t>Volleyball</t>
-  </si>
-  <si>
-    <t>Running (7.5mph)</t>
-  </si>
-  <si>
-    <t>Running (6mph)</t>
-  </si>
-  <si>
-    <t>Dancing</t>
-  </si>
-  <si>
-    <t>Soccer</t>
-  </si>
-  <si>
-    <t>Climbing hills</t>
-  </si>
-  <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>Jump rope</t>
-  </si>
-  <si>
-    <t>Squats</t>
-  </si>
-  <si>
-    <t>Table tennis</t>
-  </si>
-  <si>
-    <t>Tai chi</t>
-  </si>
-  <si>
-    <t>Rock Climbing</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>Bowling</t>
-  </si>
-  <si>
-    <t>Gardening</t>
   </si>
 </sst>
 </file>
@@ -212,9 +212,9 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <f>3.6/180</f>
-        <v>0.02</v>
+      <c r="C2" s="3">
+        <f>7.2/180</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -224,9 +224,9 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
-        <f>7.2/180</f>
-        <v>0.04</v>
+      <c r="C3">
+        <f>10/180</f>
+        <v>0.05555555556</v>
       </c>
     </row>
     <row r="4">
@@ -237,8 +237,8 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f>5.7/180</f>
-        <v>0.03166666667</v>
+        <f>11.5/180</f>
+        <v>0.06388888889</v>
       </c>
     </row>
     <row r="5">
@@ -248,9 +248,9 @@
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <f>7.2/180</f>
-        <v>0.04</v>
+      <c r="C5" s="3">
+        <f>1.9/180</f>
+        <v>0.01055555556</v>
       </c>
     </row>
     <row r="6">
@@ -261,8 +261,8 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <f>6.5/180</f>
-        <v>0.03611111111</v>
+        <f>11.5/180</f>
+        <v>0.06388888889</v>
       </c>
     </row>
     <row r="7">
@@ -272,9 +272,8 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <f>7.2/180</f>
-        <v>0.04</v>
+      <c r="C7" s="3">
+        <v>0.055</v>
       </c>
     </row>
     <row r="8">
@@ -285,8 +284,8 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <f>8/180</f>
-        <v>0.04444444444</v>
+        <f>5.7/180</f>
+        <v>0.03166666667</v>
       </c>
     </row>
     <row r="9">
@@ -297,8 +296,8 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <f>4.7/180</f>
-        <v>0.02611111111</v>
+        <f>11.5/180</f>
+        <v>0.06388888889</v>
       </c>
     </row>
     <row r="10">
@@ -309,8 +308,8 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <f>6.5/180</f>
-        <v>0.03611111111</v>
+        <f>17.2/180</f>
+        <v>0.09555555556</v>
       </c>
     </row>
     <row r="11">
@@ -320,9 +319,8 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <f>10/180</f>
-        <v>0.05555555556</v>
+      <c r="C11" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -333,8 +331,8 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <f>11.5/180</f>
-        <v>0.06388888889</v>
+        <f>400/185/30</f>
+        <v>0.07207207207</v>
       </c>
     </row>
     <row r="13">
@@ -344,9 +342,9 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
-        <f>10/180</f>
-        <v>0.05555555556</v>
+      <c r="C13" s="3">
+        <f>3.7/180</f>
+        <v>0.02055555556</v>
       </c>
     </row>
     <row r="14">
@@ -357,8 +355,8 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <f>8.6/180</f>
-        <v>0.04777777778</v>
+        <f>0.038</f>
+        <v>0.038</v>
       </c>
     </row>
     <row r="15">
@@ -368,9 +366,8 @@
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
-        <f>10/180</f>
-        <v>0.05555555556</v>
+      <c r="C15" s="3">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
@@ -381,8 +378,8 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <f>8.6/180</f>
-        <v>0.04777777778</v>
+        <f>7.2/180</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="17">
@@ -393,8 +390,8 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <f>11.5/180</f>
-        <v>0.06388888889</v>
+        <f>6.5/180</f>
+        <v>0.03611111111</v>
       </c>
     </row>
     <row r="18">
@@ -405,8 +402,8 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <f>17.2/180</f>
-        <v>0.09555555556</v>
+        <f>10/180</f>
+        <v>0.05555555556</v>
       </c>
     </row>
     <row r="19">
@@ -417,8 +414,8 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:C21" si="1">11.5/180</f>
-        <v>0.06388888889</v>
+        <f>355/185/30</f>
+        <v>0.06396396396</v>
       </c>
     </row>
     <row r="20">
@@ -429,8 +426,8 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
-        <v>0.06388888889</v>
+        <f>14.4/180</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
@@ -441,8 +438,8 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
-        <v>0.06388888889</v>
+        <f>17.9/180</f>
+        <v>0.09944444444</v>
       </c>
     </row>
     <row r="22">
@@ -453,8 +450,8 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <f>17.9/180</f>
-        <v>0.09944444444</v>
+        <f>7.2/180</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
@@ -465,8 +462,8 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <f>14.4/180</f>
-        <v>0.08</v>
+        <f>8.6/180</f>
+        <v>0.04777777778</v>
       </c>
     </row>
     <row r="24">
@@ -476,8 +473,9 @@
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.5</v>
+      <c r="C24">
+        <f>(311/60)/180</f>
+        <v>0.0287962963</v>
       </c>
     </row>
     <row r="25">
@@ -487,9 +485,8 @@
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
-        <f>332/180/2</f>
-        <v>0.9222222222</v>
+      <c r="C25" s="3">
+        <v>0.096</v>
       </c>
     </row>
     <row r="26">
@@ -499,8 +496,9 @@
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.055</v>
+      <c r="C26">
+        <f>10/180</f>
+        <v>0.05555555556</v>
       </c>
     </row>
     <row r="27">
@@ -510,9 +508,8 @@
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
-        <f>0.038</f>
-        <v>0.038</v>
+      <c r="C27" s="3">
+        <v>0.031</v>
       </c>
     </row>
     <row r="28">
@@ -522,8 +519,9 @@
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.08</v>
+      <c r="C28">
+        <f>178/185/30</f>
+        <v>0.03207207207</v>
       </c>
     </row>
     <row r="29">
@@ -533,8 +531,9 @@
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.096</v>
+      <c r="C29">
+        <f t="shared" ref="C29:C30" si="1">11.5/180</f>
+        <v>0.06388888889</v>
       </c>
     </row>
     <row r="30">
@@ -544,8 +543,9 @@
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.031</v>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.06388888889</v>
       </c>
     </row>
     <row r="31">
@@ -556,8 +556,8 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <f>178/185/30</f>
-        <v>0.03207207207</v>
+        <f>3.6/180</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="32">
@@ -568,8 +568,8 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <f>355/185/30</f>
-        <v>0.06396396396</v>
+        <f>4.7/180</f>
+        <v>0.02611111111</v>
       </c>
     </row>
     <row r="33">
@@ -580,8 +580,8 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <f>400/185/30</f>
-        <v>0.07207207207</v>
+        <f>8/180</f>
+        <v>0.04444444444</v>
       </c>
     </row>
     <row r="34">
@@ -591,9 +591,9 @@
       <c r="B34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3">
-        <f>1.9/180</f>
-        <v>0.01055555556</v>
+      <c r="C34">
+        <f>6.5/180</f>
+        <v>0.03611111111</v>
       </c>
     </row>
     <row r="35">
@@ -603,10 +603,16 @@
       <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="3">
-        <f>3.7/180</f>
-        <v>0.02055555556</v>
-      </c>
+      <c r="C35">
+        <f>8.6/180</f>
+        <v>0.04777777778</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
